--- a/tests/multialgorithm/fixtures/validation/cases/stochastic/00037/00037-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/stochastic/00037/00037-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24400" windowHeight="7660" tabRatio="989" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24400" windowHeight="7660" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <t>[c]: ==&gt; (5) X</t>
   </si>
   <si>
-    <t>Volume matters in reactions that aren't order 1</t>
+    <t>Volume matters in reactions that aren't order 1; V = 1/NA</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -371,6 +371,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -400,7 +405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -430,6 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -781,7 +787,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1454,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1495,8 +1501,8 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
+      <c r="D2" s="13">
+        <v>1.6605390404271598E-24</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>82</v>
